--- a/backend/src/data/excel/quiz.xlsx
+++ b/backend/src/data/excel/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nolan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F92977F-2AC0-4F8D-ABFC-20497D0A8EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E7AB33-9238-4E2D-A81D-D242C3E46408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2475" windowWidth="29040" windowHeight="15720" xr2:uid="{E8C917C3-2129-4B0D-A916-2226A66C8E48}"/>
+    <workbookView xWindow="40395" yWindow="4560" windowWidth="19110" windowHeight="11145" xr2:uid="{E8C917C3-2129-4B0D-A916-2226A66C8E48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="406">
   <si>
     <t>Question?</t>
   </si>
@@ -1207,13 +1207,58 @@
   </si>
   <si>
     <t>Determined by miners</t>
+  </si>
+  <si>
+    <t>What is the primary purpose of the Byzantine Fault Tolerance (BFT) mechanism?</t>
+  </si>
+  <si>
+    <t>Allow distributed network to reach consensus</t>
+  </si>
+  <si>
+    <t>To prevent the need for miners in blockchain.</t>
+  </si>
+  <si>
+    <t>To ensure block finality without using cryptographic hashes.</t>
+  </si>
+  <si>
+    <t>To ensure fairness in the block proposal process.</t>
+  </si>
+  <si>
+    <t>What is the role of an oracle in blockchain?</t>
+  </si>
+  <si>
+    <t>fetch and supply data from external sources to the blockchain</t>
+  </si>
+  <si>
+    <t>To enforce the rules of a smart contract on-chain.</t>
+  </si>
+  <si>
+    <t>To increase transaction throughput on blockchain.</t>
+  </si>
+  <si>
+    <t>To verify the consensus mechanism used in a blockchain.</t>
+  </si>
+  <si>
+    <t>What is a nonce in blockchain?</t>
+  </si>
+  <si>
+    <t>numerical value used in a trial-and-error process to have a block added to the blockchain</t>
+  </si>
+  <si>
+    <t>random number that prevents duplicate transactions.</t>
+  </si>
+  <si>
+    <t>a timestamp used in blockchain blocks.</t>
+  </si>
+  <si>
+    <t>used to generate private keys for wallets.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1244,6 +1289,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1285,7 +1337,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,19 +1348,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1628,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E222020B-272B-42C1-B2C3-97187D1E5F0D}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1699,7 +1748,7 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1745,7 +1794,7 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1791,7 +1840,7 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1814,7 +1863,7 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1837,7 +1886,7 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="1">
@@ -1860,7 +1909,7 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1883,7 +1932,7 @@
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1903,10 +1952,10 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1926,7 +1975,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1949,10 +1998,10 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1972,10 +2021,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1995,10 +2044,10 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2018,7 +2067,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2041,10 +2090,10 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2064,10 +2113,10 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2087,7 +2136,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2110,10 +2159,10 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2133,22 +2182,22 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2156,22 +2205,22 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2179,22 +2228,22 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2202,22 +2251,22 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2225,22 +2274,22 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2248,22 +2297,22 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2271,22 +2320,22 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2294,22 +2343,22 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2317,22 +2366,22 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2340,22 +2389,22 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2363,22 +2412,22 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2386,22 +2435,22 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2409,22 +2458,22 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2432,22 +2481,22 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2455,22 +2504,22 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2478,22 +2527,22 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2501,22 +2550,22 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2524,22 +2573,22 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2547,22 +2596,22 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2570,22 +2619,22 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2593,22 +2642,22 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="1" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2616,22 +2665,22 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2639,22 +2688,22 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2662,22 +2711,22 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2685,22 +2734,22 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2708,22 +2757,22 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2731,22 +2780,22 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2754,22 +2803,22 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2777,22 +2826,22 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2800,22 +2849,22 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2823,22 +2872,22 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -2846,22 +2895,22 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2869,22 +2918,22 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2892,22 +2941,22 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2915,22 +2964,22 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2938,22 +2987,22 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="1" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2961,22 +3010,22 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2984,22 +3033,22 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="C59" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="1" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3007,22 +3056,22 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3030,22 +3079,22 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3053,22 +3102,22 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="C62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="1" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3076,22 +3125,22 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="1" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3099,22 +3148,22 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C64" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="1" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3122,22 +3171,22 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="1" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3145,22 +3194,22 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="C66" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3168,22 +3217,22 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="C67" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="1" t="s">
         <v>333</v>
       </c>
     </row>
@@ -3191,22 +3240,22 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="1" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3214,22 +3263,22 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="1" t="s">
         <v>335</v>
       </c>
     </row>
@@ -3237,22 +3286,22 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="C70" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="1" t="s">
         <v>336</v>
       </c>
     </row>
@@ -3260,22 +3309,22 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="C71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="1" t="s">
         <v>337</v>
       </c>
     </row>
@@ -3283,22 +3332,22 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="1" t="s">
         <v>338</v>
       </c>
     </row>
@@ -3306,22 +3355,22 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="C73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3329,22 +3378,22 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="1" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3352,22 +3401,22 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="1" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3375,22 +3424,22 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="C76" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="1" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3398,22 +3447,22 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="C77" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="1" t="s">
         <v>342</v>
       </c>
     </row>
@@ -3421,22 +3470,22 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="1" t="s">
         <v>343</v>
       </c>
     </row>
@@ -3444,22 +3493,22 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="1" t="s">
         <v>344</v>
       </c>
     </row>
@@ -3467,22 +3516,22 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C80" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="1" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3490,22 +3539,22 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="1" t="s">
         <v>346</v>
       </c>
     </row>
@@ -3513,22 +3562,22 @@
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="1" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3536,22 +3585,22 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="1" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3559,10 +3608,10 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D84" s="1">
@@ -3582,10 +3631,10 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -3605,22 +3654,22 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="C86" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="1" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3628,22 +3677,22 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="1" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3651,22 +3700,22 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="1" t="s">
         <v>375</v>
       </c>
     </row>
@@ -3674,19 +3723,19 @@
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="1" t="s">
         <v>379</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -3697,19 +3746,19 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="1" t="s">
         <v>384</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -3720,26 +3769,96 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>386</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="1" t="s">
         <v>390</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>